--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_ratings_info[终焉议会议员等级信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_ratings_info[终焉议会议员等级信息].xlsx
@@ -62,7 +62,7 @@
     <t>投票票数</t>
   </si>
   <si>
-    <t>名字-中文</t>
+    <t>名字</t>
   </si>
   <si>
     <t>备注</t>
@@ -1063,12 +1063,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1135,7 +1135,6 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4"/>
       <c r="C4">
         <v>1</v>
       </c>
@@ -1150,7 +1149,6 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -1165,7 +1163,6 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6"/>
       <c r="C6">
         <v>4</v>
       </c>
@@ -1180,7 +1177,6 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7"/>
       <c r="C7">
         <v>8</v>
       </c>
@@ -1195,7 +1191,6 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8"/>
       <c r="C8">
         <v>16</v>
       </c>
@@ -1210,7 +1205,6 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9"/>
       <c r="C9">
         <v>32</v>
       </c>
@@ -1225,7 +1219,6 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10"/>
       <c r="C10">
         <v>64</v>
       </c>
@@ -1240,7 +1233,6 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11"/>
       <c r="C11">
         <v>128</v>
       </c>
@@ -1255,7 +1247,6 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12"/>
       <c r="C12">
         <v>256</v>
       </c>
@@ -1270,7 +1261,6 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13"/>
       <c r="C13">
         <v>512</v>
       </c>
@@ -1281,26 +1271,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1"/>
-    <row r="30" ht="15" customHeight="1"/>
-    <row r="31" ht="15" customHeight="1"/>
-    <row r="32" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
+    <row r="14" ht="15" customHeight="1"/>
+    <row r="15" ht="15" customHeight="1"/>
+    <row r="16" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="50" ht="12" customHeight="1"/>
+    <row r="51" ht="12" customHeight="1"/>
+    <row r="52" ht="12" customHeight="1"/>
+    <row r="53" ht="12" customHeight="1"/>
+    <row r="54" ht="12" customHeight="1"/>
+    <row r="55" ht="12" customHeight="1"/>
+    <row r="56" ht="12" customHeight="1"/>
+    <row r="57" ht="12" customHeight="1"/>
+    <row r="58" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
